--- a/1º SEMESTRE/MCE/PL/Relatório_PL2(Doutro)/MCE_PL5_G5_T22.xlsx
+++ b/1º SEMESTRE/MCE/PL/Relatório_PL2(Doutro)/MCE_PL5_G5_T22.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\repol\OneDrive\Documentos\GitHub\MCE\MCE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaog\OneDrive - Universidade de Aveiro\Desktop\UA\2ºANO-LECI\1º SEMESTRE\MCE\PL\Relatório_PL2(Doutro)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8289CF6D-ACE3-439F-BDDB-8B332F4002BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492AA875-C7E6-4060-960E-3BBEE185ED0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4291A316-1923-4F19-8778-22285B9FDE21}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{4291A316-1923-4F19-8778-22285B9FDE21}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -274,13 +274,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -293,11 +292,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1095,75 +1094,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>7.9000000000000008E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.9000000000000008E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.199999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0999999999999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.0999999999999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.0999999999999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.199999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.199999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.3000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8.3999999999999977E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8.5000000000000006E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.8999999999999982E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.8000000000000005E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9.1999999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9.3999999999999986E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9.6999999999999986E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.0199999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.06E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.1599999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.23E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.3599999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.52E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.7500000000000002E-2</c:v>
-                </c:pt>
                 <c:pt idx="23">
                   <c:v>2.1000000000000001E-2</c:v>
                 </c:pt>
@@ -3097,75 +3027,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>7.9000000000000008E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.9000000000000008E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.199999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0999999999999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.0999999999999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.0999999999999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.199999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.199999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.3000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8.3999999999999977E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8.5000000000000006E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.8999999999999982E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.8000000000000005E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9.1999999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9.3999999999999986E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9.6999999999999986E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.0199999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.06E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.1599999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.23E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.3599999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.52E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.7500000000000002E-2</c:v>
-                </c:pt>
                 <c:pt idx="23">
                   <c:v>2.1000000000000001E-2</c:v>
                 </c:pt>
@@ -4416,75 +4277,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>2.5106164601452943E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.5106164601452943E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.6059563257204316E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.574176370528719E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.574176370528719E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.574176370528719E-4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.6059563257204316E-4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.6059563257204316E-4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.6377362809121442E-4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.6695162361038563E-4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.701296191295569E-4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.8284160120624195E-4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.7966360568707068E-4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.9237558776375579E-4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.9873157880209826E-4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.0826556535961205E-4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.2415554295546836E-4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.3686752503215336E-4</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.6864748022386593E-4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.9089344885806477E-4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.3220739060729108E-4</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4.8305531891403123E-4</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5.5614921585497011E-4</c:v>
-                </c:pt>
                 <c:pt idx="23">
                   <c:v>6.6737905902596419E-4</c:v>
                 </c:pt>
@@ -5695,75 +5487,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>2.5106164601452943E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.5106164601452943E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.6059563257204316E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.574176370528719E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.574176370528719E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.574176370528719E-4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.6059563257204316E-4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.6059563257204316E-4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.6377362809121442E-4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.6695162361038563E-4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.701296191295569E-4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.8284160120624195E-4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.7966360568707068E-4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.9237558776375579E-4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.9873157880209826E-4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.0826556535961205E-4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.2415554295546836E-4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.3686752503215336E-4</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.6864748022386593E-4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.9089344885806477E-4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.3220739060729108E-4</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4.8305531891403123E-4</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5.5614921585497011E-4</c:v>
-                </c:pt>
                 <c:pt idx="23">
                   <c:v>6.6737905902596419E-4</c:v>
                 </c:pt>
@@ -8237,15 +7960,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>230678</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>29787</xdr:rowOff>
+      <xdr:colOff>276860</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>52879</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>512618</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>29787</xdr:rowOff>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>52879</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8828,10 +8551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E620A608-A22A-4451-AB80-C6656365DF44}">
-  <dimension ref="B2:T114"/>
+  <dimension ref="B2:V114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="88" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U98" sqref="U98"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8840,6 +8563,7 @@
     <col min="3" max="3" width="12.109375" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="19.109375" customWidth="1"/>
+    <col min="22" max="22" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8848,10 +8572,10 @@
       </c>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <f>4.3/100</f>
         <v>4.2999999999999997E-2</v>
       </c>
@@ -8863,19 +8587,19 @@
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <f>7.7/100</f>
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="12">
         <f>11/100</f>
         <v>0.11</v>
       </c>
@@ -8885,13 +8609,13 @@
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -8903,7 +8627,7 @@
       <c r="I7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="J7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="2" t="s">
@@ -8918,2184 +8642,1990 @@
       <c r="O7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q7" s="6" t="s">
+      <c r="Q7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="8" t="s">
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>0</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8">
         <v>3.5</v>
       </c>
-      <c r="D8" s="4">
-        <f t="shared" ref="D8:D48" si="0">C8*H$3/1000</f>
+      <c r="D8" s="3">
+        <f t="shared" ref="D8:D31" si="0">C8*H$3/1000</f>
         <v>1.1122984317099403E-4</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="9">
         <f>C8/1000</f>
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <v>0</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="9">
         <f>H8*H$3/1000</f>
         <v>1.398318028435354E-4</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="14">
         <f>H8/1000</f>
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="8">
         <v>0</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8">
         <v>4.5999999999999996</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8">
         <f>M8*H$3/1000</f>
         <v>1.4618779388187787E-4</v>
       </c>
-      <c r="O8" s="10">
+      <c r="O8" s="9">
         <f>M8/1000</f>
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="Q8" s="9">
-        <v>7.9000000000000008E-3</v>
-      </c>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="10">
-        <f>D8+I8</f>
-        <v>2.5106164601452943E-4</v>
-      </c>
+      <c r="Q8" s="8"/>
+      <c r="T8" s="9"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>0.01</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9">
         <v>3.5</v>
       </c>
-      <c r="D9" s="4">
-        <f t="shared" si="0"/>
+      <c r="D9" s="3">
+        <f>C9*H$3/1000</f>
         <v>1.1122984317099403E-4</v>
       </c>
-      <c r="E9" s="10">
-        <f t="shared" ref="E9:E48" si="1">C9/1000</f>
+      <c r="E9" s="9">
+        <f t="shared" ref="E9:E31" si="1">C9/1000</f>
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <v>0.01</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I9" s="10">
-        <f t="shared" ref="I9:I48" si="2">H9*H$3/1000</f>
+      <c r="I9" s="9">
+        <f t="shared" ref="I9:I31" si="2">H9*H$3/1000</f>
         <v>1.398318028435354E-4</v>
       </c>
-      <c r="J9" s="17">
-        <f t="shared" ref="J9:J48" si="3">H9/1000</f>
+      <c r="J9" s="14">
+        <f t="shared" ref="J9:J31" si="3">H9/1000</f>
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="8">
         <v>0.01</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9">
         <v>4.5999999999999996</v>
       </c>
-      <c r="N9" s="3">
-        <f t="shared" ref="N9:N47" si="4">M9*H$3/1000</f>
+      <c r="N9">
+        <f t="shared" ref="N9:N31" si="4">M9*H$3/1000</f>
         <v>1.4618779388187787E-4</v>
       </c>
-      <c r="O9" s="10">
-        <f t="shared" ref="O9:O48" si="5">M9/1000</f>
+      <c r="O9" s="9">
+        <f t="shared" ref="O9:O31" si="5">M9/1000</f>
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="Q9" s="9">
-        <v>7.9000000000000008E-3</v>
-      </c>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="10">
-        <f t="shared" ref="T9:T48" si="6">D9+I9</f>
-        <v>2.5106164601452943E-4</v>
-      </c>
+      <c r="Q9" s="8"/>
+      <c r="T9" s="9"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>0.02</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10">
         <v>3.7</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <f t="shared" si="0"/>
         <v>1.1758583420933656E-4</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <f t="shared" si="1"/>
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <v>0.02</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10">
         <v>4.5</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="9">
         <f t="shared" si="2"/>
         <v>1.430097983627066E-4</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="14">
         <f t="shared" si="3"/>
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="8">
         <v>0.02</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10">
         <v>4.9000000000000004</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10">
         <f t="shared" si="4"/>
         <v>1.5572178043939166E-4</v>
       </c>
-      <c r="O10" s="10">
+      <c r="O10" s="9">
         <f t="shared" si="5"/>
         <v>4.9000000000000007E-3</v>
       </c>
-      <c r="Q10" s="9">
-        <v>8.199999999999999E-3</v>
-      </c>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="10">
-        <f t="shared" si="6"/>
-        <v>2.6059563257204316E-4</v>
-      </c>
+      <c r="Q10" s="8"/>
+      <c r="T10" s="9"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>0.03</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11">
         <v>3.6</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <f t="shared" si="0"/>
         <v>1.1440783869016529E-4</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="9">
         <f t="shared" si="1"/>
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="8">
         <v>0.03</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11">
         <v>4.5</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="9">
         <f t="shared" si="2"/>
         <v>1.430097983627066E-4</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="14">
         <f t="shared" si="3"/>
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="8">
         <v>0.03</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11">
         <v>4.9000000000000004</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11">
         <f t="shared" si="4"/>
         <v>1.5572178043939166E-4</v>
       </c>
-      <c r="O11" s="10">
+      <c r="O11" s="9">
         <f t="shared" si="5"/>
         <v>4.9000000000000007E-3</v>
       </c>
-      <c r="Q11" s="9">
-        <v>8.0999999999999996E-3</v>
-      </c>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="10">
-        <f t="shared" si="6"/>
-        <v>2.574176370528719E-4</v>
-      </c>
+      <c r="Q11" s="8"/>
+      <c r="T11" s="9"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <v>0.04</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12">
         <v>3.6</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <f t="shared" si="0"/>
         <v>1.1440783869016529E-4</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="9">
         <f t="shared" si="1"/>
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="8">
         <v>0.04</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12">
         <v>4.5</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="9">
         <f t="shared" si="2"/>
         <v>1.430097983627066E-4</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="14">
         <f t="shared" si="3"/>
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="8">
         <v>0.04</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12">
         <v>5</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12">
         <f t="shared" si="4"/>
         <v>1.5889977595856292E-4</v>
       </c>
-      <c r="O12" s="10">
+      <c r="O12" s="9">
         <f t="shared" si="5"/>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="Q12" s="9">
-        <v>8.0999999999999996E-3</v>
-      </c>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="10">
-        <f t="shared" si="6"/>
-        <v>2.574176370528719E-4</v>
-      </c>
+      <c r="Q12" s="8"/>
+      <c r="T12" s="9"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B13" s="9">
+      <c r="B13" s="8">
         <v>0.05</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13">
         <v>3.6</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <f t="shared" si="0"/>
         <v>1.1440783869016529E-4</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="9">
         <f t="shared" si="1"/>
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="8">
         <v>0.05</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13">
         <v>4.5</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="9">
         <f t="shared" si="2"/>
         <v>1.430097983627066E-4</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="14">
         <f t="shared" si="3"/>
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="8">
         <v>0.05</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13">
         <v>5</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N13">
         <f t="shared" si="4"/>
         <v>1.5889977595856292E-4</v>
       </c>
-      <c r="O13" s="10">
+      <c r="O13" s="9">
         <f t="shared" si="5"/>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="Q13" s="9">
-        <v>8.0999999999999996E-3</v>
-      </c>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="10">
-        <f t="shared" si="6"/>
-        <v>2.574176370528719E-4</v>
-      </c>
+      <c r="Q13" s="8"/>
+      <c r="T13" s="9"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>0.06</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14">
         <v>3.6</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <f t="shared" si="0"/>
         <v>1.1440783869016529E-4</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="9">
         <f t="shared" si="1"/>
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="8">
         <v>0.06</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="9">
         <f t="shared" si="2"/>
         <v>1.4618779388187787E-4</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="14">
         <f t="shared" si="3"/>
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="8">
         <v>0.06</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14">
         <v>5.0999999999999996</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14">
         <f t="shared" si="4"/>
         <v>1.6207777147773415E-4</v>
       </c>
-      <c r="O14" s="10">
+      <c r="O14" s="9">
         <f t="shared" si="5"/>
         <v>5.0999999999999995E-3</v>
       </c>
-      <c r="Q14" s="9">
-        <v>8.199999999999999E-3</v>
-      </c>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="10">
-        <f t="shared" si="6"/>
-        <v>2.6059563257204316E-4</v>
-      </c>
+      <c r="Q14" s="8"/>
+      <c r="T14" s="9"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B15" s="9">
+      <c r="B15" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15">
         <v>3.6</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <f t="shared" si="0"/>
         <v>1.1440783869016529E-4</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="9">
         <f t="shared" si="1"/>
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="9">
         <f t="shared" si="2"/>
         <v>1.4618779388187787E-4</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J15" s="14">
         <f t="shared" si="3"/>
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="17">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15">
         <v>5.0999999999999996</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15">
         <f t="shared" si="4"/>
         <v>1.6207777147773415E-4</v>
       </c>
-      <c r="O15" s="10">
+      <c r="O15" s="9">
         <f t="shared" si="5"/>
         <v>5.0999999999999995E-3</v>
       </c>
-      <c r="Q15" s="9">
-        <v>8.199999999999999E-3</v>
-      </c>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="10">
-        <f t="shared" si="6"/>
-        <v>2.6059563257204316E-4</v>
-      </c>
+      <c r="Q15" s="8"/>
+      <c r="T15" s="9"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B16" s="9">
+      <c r="B16" s="8">
         <v>0.08</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16">
         <v>3.7</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <f t="shared" si="0"/>
         <v>1.1758583420933656E-4</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="9">
         <f t="shared" si="1"/>
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="8">
         <v>0.08</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="9">
         <f t="shared" si="2"/>
         <v>1.4618779388187787E-4</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="14">
         <f t="shared" si="3"/>
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="8">
         <v>0.08</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M16">
         <v>5.2</v>
       </c>
-      <c r="N16" s="3">
+      <c r="N16">
         <f t="shared" si="4"/>
         <v>1.6525576699690544E-4</v>
       </c>
-      <c r="O16" s="10">
+      <c r="O16" s="9">
         <f t="shared" si="5"/>
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="Q16" s="9">
-        <v>8.3000000000000001E-3</v>
-      </c>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="10">
-        <f t="shared" si="6"/>
-        <v>2.6377362809121442E-4</v>
-      </c>
+      <c r="Q16" s="8"/>
+      <c r="T16" s="9"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B17" s="9">
+      <c r="B17" s="8">
         <v>0.09</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17">
         <v>3.8</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <f t="shared" si="0"/>
         <v>1.2076382972850779E-4</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="9">
         <f t="shared" si="1"/>
         <v>3.8E-3</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="8">
         <v>0.09</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="9">
         <f t="shared" si="2"/>
         <v>1.4618779388187787E-4</v>
       </c>
-      <c r="J17" s="17">
+      <c r="J17" s="14">
         <f t="shared" si="3"/>
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L17" s="8">
         <v>0.09</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17">
         <v>5.3</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17">
         <f t="shared" si="4"/>
         <v>1.6843376251607668E-4</v>
       </c>
-      <c r="O17" s="10">
+      <c r="O17" s="9">
         <f t="shared" si="5"/>
         <v>5.3E-3</v>
       </c>
-      <c r="Q17" s="9">
-        <v>8.3999999999999977E-3</v>
-      </c>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="10">
-        <f t="shared" si="6"/>
-        <v>2.6695162361038563E-4</v>
-      </c>
+      <c r="Q17" s="8"/>
+      <c r="T17" s="9"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B18" s="9">
+      <c r="B18" s="8">
         <v>0.1</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18">
         <v>3.9</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <f t="shared" si="0"/>
         <v>1.2394182524767906E-4</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="9">
         <f t="shared" si="1"/>
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="8">
         <v>0.1</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="9">
         <f t="shared" si="2"/>
         <v>1.4618779388187787E-4</v>
       </c>
-      <c r="J18" s="17">
+      <c r="J18" s="14">
         <f t="shared" si="3"/>
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L18" s="8">
         <v>0.1</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18">
         <v>5.5</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18">
         <f t="shared" si="4"/>
         <v>1.747897535544192E-4</v>
       </c>
-      <c r="O18" s="10">
+      <c r="O18" s="9">
         <f t="shared" si="5"/>
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="Q18" s="9">
-        <v>8.5000000000000006E-3</v>
-      </c>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="10">
-        <f t="shared" si="6"/>
-        <v>2.701296191295569E-4</v>
-      </c>
+      <c r="Q18" s="8"/>
+      <c r="T18" s="9"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B19" s="9">
+      <c r="B19" s="8">
         <v>0.11</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <f t="shared" si="0"/>
         <v>1.3029781628602158E-4</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="9">
         <f t="shared" si="1"/>
         <v>4.0999999999999995E-3</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="8">
         <v>0.11</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19">
         <v>4.8</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="9">
         <f t="shared" si="2"/>
         <v>1.5254378492022039E-4</v>
       </c>
-      <c r="J19" s="17">
+      <c r="J19" s="14">
         <f t="shared" si="3"/>
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="L19" s="9">
+      <c r="L19" s="8">
         <v>0.11</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M19">
         <v>5.6</v>
       </c>
-      <c r="N19" s="3">
+      <c r="N19">
         <f t="shared" si="4"/>
         <v>1.7796774907359044E-4</v>
       </c>
-      <c r="O19" s="10">
+      <c r="O19" s="9">
         <f t="shared" si="5"/>
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="Q19" s="9">
-        <v>8.8999999999999982E-3</v>
-      </c>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="10">
-        <f t="shared" si="6"/>
-        <v>2.8284160120624195E-4</v>
-      </c>
+      <c r="Q19" s="8"/>
+      <c r="T19" s="9"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B20" s="9">
+      <c r="B20" s="8">
         <v>0.12</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <f t="shared" si="0"/>
         <v>1.3029781628602158E-4</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="9">
         <f t="shared" si="1"/>
         <v>4.0999999999999995E-3</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="8">
         <v>0.12</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20">
         <v>4.7</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I20" s="9">
         <f t="shared" si="2"/>
         <v>1.4936578940104913E-4</v>
       </c>
-      <c r="J20" s="17">
+      <c r="J20" s="14">
         <f t="shared" si="3"/>
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="L20" s="9">
+      <c r="L20" s="8">
         <v>0.12</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20">
         <v>5.8</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20">
         <f t="shared" si="4"/>
         <v>1.8432374011193297E-4</v>
       </c>
-      <c r="O20" s="10">
+      <c r="O20" s="9">
         <f t="shared" si="5"/>
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="Q20" s="9">
-        <v>8.8000000000000005E-3</v>
-      </c>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="10">
-        <f t="shared" si="6"/>
-        <v>2.7966360568707068E-4</v>
-      </c>
+      <c r="Q20" s="8"/>
+      <c r="T20" s="9"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B21" s="9">
+      <c r="B21" s="8">
         <v>0.13</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <f t="shared" si="0"/>
         <v>1.398318028435354E-4</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="9">
         <f t="shared" si="1"/>
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="8">
         <v>0.13</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21">
         <v>4.8</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I21" s="9">
         <f t="shared" si="2"/>
         <v>1.5254378492022039E-4</v>
       </c>
-      <c r="J21" s="17">
+      <c r="J21" s="14">
         <f t="shared" si="3"/>
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L21" s="8">
         <v>0.13</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21">
         <v>6.1</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21">
         <f t="shared" si="4"/>
         <v>1.9385772666944673E-4</v>
       </c>
-      <c r="O21" s="10">
+      <c r="O21" s="9">
         <f t="shared" si="5"/>
         <v>6.0999999999999995E-3</v>
       </c>
-      <c r="Q21" s="9">
-        <v>9.1999999999999998E-3</v>
-      </c>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="10">
-        <f t="shared" si="6"/>
-        <v>2.9237558776375579E-4</v>
-      </c>
+      <c r="Q21" s="8"/>
+      <c r="T21" s="9"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B22" s="9">
+      <c r="B22" s="8">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <f t="shared" si="0"/>
         <v>1.4618779388187787E-4</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="9">
         <f t="shared" si="1"/>
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="8">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22">
         <v>4.8</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="9">
         <f t="shared" si="2"/>
         <v>1.5254378492022039E-4</v>
       </c>
-      <c r="J22" s="17">
+      <c r="J22" s="14">
         <f t="shared" si="3"/>
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="L22" s="9">
+      <c r="L22" s="8">
         <v>0.14000000000000001</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22">
         <v>6.3</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22">
         <f t="shared" si="4"/>
         <v>2.0021371770778925E-4</v>
       </c>
-      <c r="O22" s="10">
+      <c r="O22" s="9">
         <f t="shared" si="5"/>
         <v>6.3E-3</v>
       </c>
-      <c r="Q22" s="9">
-        <v>9.3999999999999986E-3</v>
-      </c>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="10">
-        <f t="shared" si="6"/>
-        <v>2.9873157880209826E-4</v>
-      </c>
+      <c r="Q22" s="8"/>
+      <c r="T22" s="9"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B23" s="9">
+      <c r="B23" s="8">
         <v>0.15</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23">
         <v>4.8</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <f t="shared" si="0"/>
         <v>1.5254378492022039E-4</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="9">
         <f t="shared" si="1"/>
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="8">
         <v>0.15</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I23" s="9">
         <f t="shared" si="2"/>
         <v>1.5572178043939166E-4</v>
       </c>
-      <c r="J23" s="17">
+      <c r="J23" s="14">
         <f t="shared" si="3"/>
         <v>4.9000000000000007E-3</v>
       </c>
-      <c r="L23" s="9">
+      <c r="L23" s="8">
         <v>0.15</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M23">
         <v>6.8</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N23">
         <f t="shared" si="4"/>
         <v>2.1610369530364554E-4</v>
       </c>
-      <c r="O23" s="10">
+      <c r="O23" s="9">
         <f t="shared" si="5"/>
         <v>6.7999999999999996E-3</v>
       </c>
-      <c r="Q23" s="9">
-        <v>9.6999999999999986E-3</v>
-      </c>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="10">
-        <f t="shared" si="6"/>
-        <v>3.0826556535961205E-4</v>
-      </c>
+      <c r="Q23" s="8"/>
+      <c r="T23" s="9"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B24" s="9">
+      <c r="B24" s="8">
         <v>0.16</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24">
         <v>5.2</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <f t="shared" si="0"/>
         <v>1.6525576699690544E-4</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="9">
         <f t="shared" si="1"/>
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="8">
         <v>0.16</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24">
         <v>5</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I24" s="9">
         <f t="shared" si="2"/>
         <v>1.5889977595856292E-4</v>
       </c>
-      <c r="J24" s="17">
+      <c r="J24" s="14">
         <f t="shared" si="3"/>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="L24" s="9">
+      <c r="L24" s="8">
         <v>0.16</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24">
         <v>7.3</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N24">
         <f t="shared" si="4"/>
         <v>2.3199367289950185E-4</v>
       </c>
-      <c r="O24" s="10">
+      <c r="O24" s="9">
         <f t="shared" si="5"/>
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="Q24" s="9">
-        <v>1.0199999999999999E-2</v>
-      </c>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="10">
-        <f t="shared" si="6"/>
-        <v>3.2415554295546836E-4</v>
-      </c>
+      <c r="Q24" s="8"/>
+      <c r="T24" s="9"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B25" s="9">
+      <c r="B25" s="8">
         <v>0.17</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25">
         <v>5.5</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <f t="shared" si="0"/>
         <v>1.747897535544192E-4</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="9">
         <f t="shared" si="1"/>
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="8">
         <v>0.17</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25">
         <v>5.0999999999999996</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I25" s="9">
         <f t="shared" si="2"/>
         <v>1.6207777147773415E-4</v>
       </c>
-      <c r="J25" s="17">
+      <c r="J25" s="14">
         <f t="shared" si="3"/>
         <v>5.0999999999999995E-3</v>
       </c>
-      <c r="L25" s="9">
+      <c r="L25" s="8">
         <v>0.17</v>
       </c>
-      <c r="M25" s="3">
+      <c r="M25">
         <v>7.8</v>
       </c>
-      <c r="N25" s="3">
+      <c r="N25">
         <f t="shared" si="4"/>
         <v>2.4788365049535811E-4</v>
       </c>
-      <c r="O25" s="10">
+      <c r="O25" s="9">
         <f t="shared" si="5"/>
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="Q25" s="9">
-        <v>1.06E-2</v>
-      </c>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="10">
-        <f t="shared" si="6"/>
-        <v>3.3686752503215336E-4</v>
-      </c>
+      <c r="Q25" s="8"/>
+      <c r="T25" s="9"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B26" s="9">
+      <c r="B26" s="8">
         <v>0.18</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26">
         <v>6.1</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <f t="shared" si="0"/>
         <v>1.9385772666944673E-4</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="9">
         <f t="shared" si="1"/>
         <v>6.0999999999999995E-3</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="8">
         <v>0.18</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26">
         <v>5.5</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I26" s="9">
         <f t="shared" si="2"/>
         <v>1.747897535544192E-4</v>
       </c>
-      <c r="J26" s="17">
+      <c r="J26" s="14">
         <f t="shared" si="3"/>
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="L26" s="9">
+      <c r="L26" s="8">
         <v>0.18</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26">
         <v>8.8000000000000007</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N26">
         <f t="shared" si="4"/>
         <v>2.7966360568707079E-4</v>
       </c>
-      <c r="O26" s="10">
+      <c r="O26" s="9">
         <f t="shared" si="5"/>
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="Q26" s="9">
-        <v>1.1599999999999999E-2</v>
-      </c>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="10">
-        <f t="shared" si="6"/>
-        <v>3.6864748022386593E-4</v>
-      </c>
+      <c r="Q26" s="8"/>
+      <c r="T26" s="9"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B27" s="9">
+      <c r="B27" s="8">
         <v>0.19</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27">
         <v>6.7</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <f t="shared" si="0"/>
         <v>2.129256997844743E-4</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="9">
         <f t="shared" si="1"/>
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="8">
         <v>0.19</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27">
         <v>5.6</v>
       </c>
-      <c r="I27" s="10">
+      <c r="I27" s="9">
         <f t="shared" si="2"/>
         <v>1.7796774907359044E-4</v>
       </c>
-      <c r="J27" s="17">
+      <c r="J27" s="14">
         <f t="shared" si="3"/>
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="L27" s="9">
+      <c r="L27" s="8">
         <v>0.19</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M27">
         <v>9.9</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N27">
         <f t="shared" si="4"/>
         <v>3.1462155639795457E-4</v>
       </c>
-      <c r="O27" s="10">
+      <c r="O27" s="9">
         <f t="shared" si="5"/>
         <v>9.9000000000000008E-3</v>
       </c>
-      <c r="Q27" s="9">
-        <v>1.23E-2</v>
-      </c>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="10">
-        <f t="shared" si="6"/>
-        <v>3.9089344885806477E-4</v>
-      </c>
+      <c r="Q27" s="8"/>
+      <c r="T27" s="9"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B28" s="9">
+      <c r="B28" s="8">
         <v>0.2</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28">
         <v>7.8</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <f t="shared" si="0"/>
         <v>2.4788365049535811E-4</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="9">
         <f t="shared" si="1"/>
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="8">
         <v>0.2</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28">
         <v>5.8</v>
       </c>
-      <c r="I28" s="10">
+      <c r="I28" s="9">
         <f t="shared" si="2"/>
         <v>1.8432374011193297E-4</v>
       </c>
-      <c r="J28" s="17">
+      <c r="J28" s="14">
         <f t="shared" si="3"/>
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="L28" s="9">
+      <c r="L28" s="8">
         <v>0.2</v>
       </c>
-      <c r="M28" s="3">
+      <c r="M28">
         <v>11.5</v>
       </c>
-      <c r="N28" s="3">
+      <c r="N28">
         <f t="shared" si="4"/>
         <v>3.6546948470469472E-4</v>
       </c>
-      <c r="O28" s="10">
+      <c r="O28" s="9">
         <f t="shared" si="5"/>
         <v>1.15E-2</v>
       </c>
-      <c r="Q28" s="9">
-        <v>1.3599999999999999E-2</v>
-      </c>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="10">
-        <f t="shared" si="6"/>
-        <v>4.3220739060729108E-4</v>
-      </c>
+      <c r="Q28" s="8"/>
+      <c r="T28" s="9"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B29" s="9">
+      <c r="B29" s="8">
         <v>0.21</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29">
         <v>9.1999999999999993</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <f t="shared" si="0"/>
         <v>2.9237558776375574E-4</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="9">
         <f t="shared" si="1"/>
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="8">
         <v>0.21</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29">
         <v>6</v>
       </c>
-      <c r="I29" s="10">
+      <c r="I29" s="9">
         <f t="shared" si="2"/>
         <v>1.9067973115027549E-4</v>
       </c>
-      <c r="J29" s="17">
+      <c r="J29" s="14">
         <f t="shared" si="3"/>
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="L29" s="9">
+      <c r="L29" s="8">
         <v>0.21</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29">
         <v>13.8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29">
         <f t="shared" si="4"/>
         <v>4.3856338164563366E-4</v>
       </c>
-      <c r="O29" s="10">
+      <c r="O29" s="9">
         <f t="shared" si="5"/>
         <v>1.3800000000000002E-2</v>
       </c>
-      <c r="Q29" s="9">
-        <v>1.52E-2</v>
-      </c>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="10">
-        <f t="shared" si="6"/>
-        <v>4.8305531891403123E-4</v>
-      </c>
+      <c r="Q29" s="8"/>
+      <c r="T29" s="9"/>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B30" s="9">
+      <c r="B30" s="8">
         <v>0.22</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30">
         <v>11.1</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="3">
         <f t="shared" si="0"/>
         <v>3.5275750262800962E-4</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="9">
         <f t="shared" si="1"/>
         <v>1.11E-2</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="8">
         <v>0.22</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30">
         <v>6.4</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I30" s="9">
         <f t="shared" si="2"/>
         <v>2.0339171322696054E-4</v>
       </c>
-      <c r="J30" s="17">
+      <c r="J30" s="14">
         <f t="shared" si="3"/>
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="L30" s="9">
+      <c r="L30" s="8">
         <v>0.22</v>
       </c>
-      <c r="M30" s="3">
+      <c r="M30">
         <v>17</v>
       </c>
-      <c r="N30" s="3">
+      <c r="N30">
         <f t="shared" si="4"/>
         <v>5.402592382591139E-4</v>
       </c>
-      <c r="O30" s="10">
+      <c r="O30" s="9">
         <f t="shared" si="5"/>
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="Q30" s="9">
-        <v>1.7500000000000002E-2</v>
-      </c>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="10">
-        <f t="shared" si="6"/>
-        <v>5.5614921585497011E-4</v>
-      </c>
+      <c r="Q30" s="8"/>
+      <c r="T30" s="9"/>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B31" s="9">
+      <c r="B31" s="8">
         <v>0.23</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31">
         <v>14.1</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="3">
         <f t="shared" si="0"/>
         <v>4.4809736820314739E-4</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="9">
         <f t="shared" si="1"/>
         <v>1.41E-2</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G31" s="8">
         <v>0.23</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31">
         <v>6.9</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I31" s="9">
         <f t="shared" si="2"/>
         <v>2.1928169082281683E-4</v>
       </c>
-      <c r="J31" s="17">
+      <c r="J31" s="14">
         <f t="shared" si="3"/>
         <v>6.9000000000000008E-3</v>
       </c>
-      <c r="L31" s="9">
+      <c r="L31" s="8">
         <v>0.23</v>
       </c>
-      <c r="M31" s="3">
+      <c r="M31">
         <v>22.3</v>
       </c>
-      <c r="N31" s="3">
+      <c r="N31">
         <f t="shared" si="4"/>
         <v>7.0869300077519061E-4</v>
       </c>
-      <c r="O31" s="10">
+      <c r="O31" s="9">
         <f t="shared" si="5"/>
         <v>2.23E-2</v>
       </c>
-      <c r="Q31" s="9">
+      <c r="Q31" s="8">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="10">
-        <f t="shared" si="6"/>
+      <c r="T31" s="9">
+        <f t="shared" ref="T8:T48" si="6">D31+I31</f>
         <v>6.6737905902596419E-4</v>
       </c>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B32" s="9">
+      <c r="B32" s="8">
         <v>0.24</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32">
         <v>18.399999999999999</v>
       </c>
-      <c r="D32" s="4">
-        <f t="shared" si="0"/>
+      <c r="D32" s="3">
+        <f t="shared" ref="D32:D48" si="7">C32*H$3/1000</f>
         <v>5.8475117552751147E-4</v>
       </c>
-      <c r="E32" s="10">
-        <f t="shared" si="1"/>
+      <c r="E32" s="9">
+        <f t="shared" ref="E32:E48" si="8">C32/1000</f>
         <v>1.84E-2</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="8">
         <v>0.24</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32">
         <v>7.5</v>
       </c>
-      <c r="I32" s="10">
-        <f t="shared" si="2"/>
+      <c r="I32" s="9">
+        <f t="shared" ref="I32:I48" si="9">H32*H$3/1000</f>
         <v>2.3834966393784438E-4</v>
       </c>
-      <c r="J32" s="17">
-        <f t="shared" si="3"/>
+      <c r="J32" s="14">
+        <f t="shared" ref="J32:J48" si="10">H32/1000</f>
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="L32" s="9">
+      <c r="L32" s="8">
         <v>0.24</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32">
         <v>28.4</v>
       </c>
-      <c r="N32" s="3">
-        <f t="shared" si="4"/>
+      <c r="N32">
+        <f t="shared" ref="N32:N48" si="11">M32*H$3/1000</f>
         <v>9.0255072744463731E-4</v>
       </c>
-      <c r="O32" s="10">
-        <f t="shared" si="5"/>
+      <c r="O32" s="9">
+        <f t="shared" ref="O32:O48" si="12">M32/1000</f>
         <v>2.8399999999999998E-2</v>
       </c>
-      <c r="Q32" s="9">
+      <c r="Q32" s="8">
         <v>2.5899999999999999E-2</v>
       </c>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="10">
+      <c r="T32" s="9">
         <f t="shared" si="6"/>
         <v>8.2310083946535585E-4</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B33" s="9">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B33" s="8">
         <v>0.25</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33">
         <v>24.1</v>
       </c>
-      <c r="D33" s="4">
-        <f t="shared" si="0"/>
+      <c r="D33" s="3">
+        <f t="shared" si="7"/>
         <v>7.6589692012027323E-4</v>
       </c>
-      <c r="E33" s="10">
-        <f t="shared" si="1"/>
+      <c r="E33" s="9">
+        <f t="shared" si="8"/>
         <v>2.41E-2</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G33" s="8">
         <v>0.25</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33">
         <v>8.5</v>
       </c>
-      <c r="I33" s="10">
-        <f t="shared" si="2"/>
+      <c r="I33" s="9">
+        <f t="shared" si="9"/>
         <v>2.7012961912955695E-4</v>
       </c>
-      <c r="J33" s="17">
-        <f t="shared" si="3"/>
+      <c r="J33" s="14">
+        <f t="shared" si="10"/>
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="L33" s="9">
+      <c r="L33" s="8">
         <v>0.25</v>
       </c>
-      <c r="M33" s="3">
+      <c r="M33">
         <v>37.799999999999997</v>
       </c>
-      <c r="N33" s="3">
-        <f t="shared" si="4"/>
+      <c r="N33">
+        <f t="shared" si="11"/>
         <v>1.2012823062467356E-3</v>
       </c>
-      <c r="O33" s="10">
-        <f t="shared" si="5"/>
+      <c r="O33" s="9">
+        <f t="shared" si="12"/>
         <v>3.78E-2</v>
       </c>
-      <c r="Q33" s="9">
+      <c r="Q33" s="8">
         <v>3.2600000000000004E-2</v>
       </c>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="10">
+      <c r="T33" s="9">
         <f t="shared" si="6"/>
         <v>1.0360265392498301E-3</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B34" s="9">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B34" s="8">
         <v>0.26</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34">
         <v>31.8</v>
       </c>
-      <c r="D34" s="4">
-        <f t="shared" si="0"/>
+      <c r="D34" s="3">
+        <f t="shared" si="7"/>
         <v>1.0106025750964602E-3</v>
       </c>
-      <c r="E34" s="10">
-        <f t="shared" si="1"/>
+      <c r="E34" s="9">
+        <f t="shared" si="8"/>
         <v>3.1800000000000002E-2</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G34" s="8">
         <v>0.26</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34">
         <v>9.8000000000000007</v>
       </c>
-      <c r="I34" s="10">
-        <f t="shared" si="2"/>
+      <c r="I34" s="9">
+        <f t="shared" si="9"/>
         <v>3.1144356087878331E-4</v>
       </c>
-      <c r="J34" s="17">
-        <f t="shared" si="3"/>
+      <c r="J34" s="14">
+        <f t="shared" si="10"/>
         <v>9.8000000000000014E-3</v>
       </c>
-      <c r="L34" s="9">
+      <c r="L34" s="8">
         <v>0.26</v>
       </c>
-      <c r="M34" s="3">
+      <c r="M34">
         <v>49.3</v>
       </c>
-      <c r="N34" s="3">
-        <f t="shared" si="4"/>
+      <c r="N34">
+        <f t="shared" si="11"/>
         <v>1.5667517909514301E-3</v>
       </c>
-      <c r="O34" s="10">
-        <f t="shared" si="5"/>
+      <c r="O34" s="9">
+        <f t="shared" si="12"/>
         <v>4.9299999999999997E-2</v>
       </c>
-      <c r="Q34" s="9">
+      <c r="Q34" s="8">
         <v>4.1599999999999998E-2</v>
       </c>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="10">
+      <c r="T34" s="9">
         <f t="shared" si="6"/>
         <v>1.3220461359752435E-3</v>
       </c>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B35" s="9">
+    <row r="35" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B35" s="8">
         <v>0.27</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35">
         <v>42.5</v>
       </c>
-      <c r="D35" s="4">
-        <f t="shared" si="0"/>
+      <c r="D35" s="3">
+        <f t="shared" si="7"/>
         <v>1.3506480956477847E-3</v>
       </c>
-      <c r="E35" s="10">
-        <f t="shared" si="1"/>
+      <c r="E35" s="9">
+        <f t="shared" si="8"/>
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G35" s="8">
         <v>0.27</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35">
         <v>11.7</v>
       </c>
-      <c r="I35" s="10">
-        <f t="shared" si="2"/>
+      <c r="I35" s="9">
+        <f t="shared" si="9"/>
         <v>3.7182547574303719E-4</v>
       </c>
-      <c r="J35" s="17">
-        <f t="shared" si="3"/>
+      <c r="J35" s="14">
+        <f t="shared" si="10"/>
         <v>1.1699999999999999E-2</v>
       </c>
-      <c r="L35" s="9">
+      <c r="L35" s="8">
         <v>0.27</v>
       </c>
-      <c r="M35" s="3">
+      <c r="M35">
         <v>60</v>
       </c>
-      <c r="N35" s="3">
-        <f t="shared" si="4"/>
+      <c r="N35">
+        <f t="shared" si="11"/>
         <v>1.906797311502755E-3</v>
       </c>
-      <c r="O35" s="10">
-        <f t="shared" si="5"/>
+      <c r="O35" s="9">
+        <f t="shared" si="12"/>
         <v>0.06</v>
       </c>
-      <c r="Q35" s="9">
+      <c r="Q35" s="8">
         <v>5.4200000000000005E-2</v>
       </c>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="10">
+      <c r="T35" s="9">
         <f t="shared" si="6"/>
         <v>1.7224735713908218E-3</v>
       </c>
+      <c r="V35" s="16"/>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B36" s="9">
+    <row r="36" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B36" s="8">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36">
         <v>52.7</v>
       </c>
-      <c r="D36" s="4">
-        <f t="shared" si="0"/>
+      <c r="D36" s="3">
+        <f t="shared" si="7"/>
         <v>1.6748036386032533E-3</v>
       </c>
-      <c r="E36" s="10">
-        <f t="shared" si="1"/>
+      <c r="E36" s="9">
+        <f t="shared" si="8"/>
         <v>5.2700000000000004E-2</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="8">
         <v>0.28000000000000003</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36">
         <v>14.3</v>
       </c>
-      <c r="I36" s="10">
-        <f t="shared" si="2"/>
+      <c r="I36" s="9">
+        <f t="shared" si="9"/>
         <v>4.5445335924148992E-4</v>
       </c>
-      <c r="J36" s="17">
-        <f t="shared" si="3"/>
+      <c r="J36" s="14">
+        <f t="shared" si="10"/>
         <v>1.43E-2</v>
       </c>
-      <c r="L36" s="9">
+      <c r="L36" s="8">
         <v>0.28000000000000003</v>
       </c>
-      <c r="M36" s="3">
+      <c r="M36">
         <v>65.5</v>
       </c>
-      <c r="N36" s="3">
-        <f t="shared" si="4"/>
+      <c r="N36">
+        <f t="shared" si="11"/>
         <v>2.0815870650571743E-3</v>
       </c>
-      <c r="O36" s="10">
-        <f t="shared" si="5"/>
+      <c r="O36" s="9">
+        <f t="shared" si="12"/>
         <v>6.5500000000000003E-2</v>
       </c>
-      <c r="Q36" s="9">
+      <c r="Q36" s="8">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="10">
+      <c r="T36" s="9">
         <f t="shared" si="6"/>
         <v>2.129256997844743E-3</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B37" s="9">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B37" s="8">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37">
         <v>58.3</v>
       </c>
-      <c r="D37" s="4">
-        <f t="shared" si="0"/>
+      <c r="D37" s="3">
+        <f t="shared" si="7"/>
         <v>1.8527713876768436E-3</v>
       </c>
-      <c r="E37" s="10">
-        <f t="shared" si="1"/>
+      <c r="E37" s="9">
+        <f t="shared" si="8"/>
         <v>5.8299999999999998E-2</v>
       </c>
-      <c r="G37" s="9">
+      <c r="G37" s="8">
         <v>0.28999999999999998</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H37">
         <v>18.2</v>
       </c>
-      <c r="I37" s="10">
-        <f t="shared" si="2"/>
+      <c r="I37" s="9">
+        <f t="shared" si="9"/>
         <v>5.7839518448916894E-4</v>
       </c>
-      <c r="J37" s="17">
-        <f t="shared" si="3"/>
+      <c r="J37" s="14">
+        <f t="shared" si="10"/>
         <v>1.8200000000000001E-2</v>
       </c>
-      <c r="L37" s="9">
+      <c r="L37" s="8">
         <v>0.28999999999999998</v>
       </c>
-      <c r="M37" s="3">
+      <c r="M37">
         <v>65.2</v>
       </c>
-      <c r="N37" s="3">
-        <f t="shared" si="4"/>
+      <c r="N37">
+        <f t="shared" si="11"/>
         <v>2.0720530784996607E-3</v>
       </c>
-      <c r="O37" s="10">
-        <f t="shared" si="5"/>
+      <c r="O37" s="9">
+        <f t="shared" si="12"/>
         <v>6.5200000000000008E-2</v>
       </c>
-      <c r="Q37" s="9">
+      <c r="Q37" s="8">
         <v>7.6499999999999999E-2</v>
       </c>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="10">
+      <c r="T37" s="9">
         <f t="shared" si="6"/>
         <v>2.4311665721660127E-3</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B38" s="9">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B38" s="8">
         <v>0.3</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38">
         <v>54.8</v>
       </c>
-      <c r="D38" s="4">
-        <f t="shared" si="0"/>
+      <c r="D38" s="3">
+        <f t="shared" si="7"/>
         <v>1.7415415445058494E-3</v>
       </c>
-      <c r="E38" s="10">
-        <f t="shared" si="1"/>
+      <c r="E38" s="9">
+        <f t="shared" si="8"/>
         <v>5.4799999999999995E-2</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G38" s="8">
         <v>0.3</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38">
         <v>24</v>
       </c>
-      <c r="I38" s="10">
-        <f t="shared" si="2"/>
+      <c r="I38" s="9">
+        <f t="shared" si="9"/>
         <v>7.6271892460110196E-4</v>
       </c>
-      <c r="J38" s="17">
-        <f t="shared" si="3"/>
+      <c r="J38" s="14">
+        <f t="shared" si="10"/>
         <v>2.4E-2</v>
       </c>
-      <c r="L38" s="9">
+      <c r="L38" s="8">
         <v>0.3</v>
       </c>
-      <c r="M38" s="3">
+      <c r="M38">
         <v>61</v>
       </c>
-      <c r="N38" s="3">
-        <f t="shared" si="4"/>
+      <c r="N38">
+        <f t="shared" si="11"/>
         <v>1.9385772666944674E-3</v>
       </c>
-      <c r="O38" s="10">
-        <f t="shared" si="5"/>
+      <c r="O38" s="9">
+        <f t="shared" si="12"/>
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="Q38" s="9">
+      <c r="Q38" s="8">
         <v>7.8799999999999995E-2</v>
       </c>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="10">
+      <c r="T38" s="9">
         <f t="shared" si="6"/>
         <v>2.5042604691069515E-3</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B39" s="9">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B39" s="8">
         <v>0.31</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39">
         <v>45</v>
       </c>
-      <c r="D39" s="4">
-        <f t="shared" si="0"/>
+      <c r="D39" s="3">
+        <f t="shared" si="7"/>
         <v>1.4300979836270663E-3</v>
       </c>
-      <c r="E39" s="10">
-        <f t="shared" si="1"/>
+      <c r="E39" s="9">
+        <f t="shared" si="8"/>
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="G39" s="9">
+      <c r="G39" s="8">
         <v>0.31</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39">
         <v>32.4</v>
       </c>
-      <c r="I39" s="10">
-        <f t="shared" si="2"/>
+      <c r="I39" s="9">
+        <f t="shared" si="9"/>
         <v>1.0296705482114876E-3</v>
       </c>
-      <c r="J39" s="17">
-        <f t="shared" si="3"/>
+      <c r="J39" s="14">
+        <f t="shared" si="10"/>
         <v>3.2399999999999998E-2</v>
       </c>
-      <c r="L39" s="9">
+      <c r="L39" s="8">
         <v>0.31</v>
       </c>
-      <c r="M39" s="3">
+      <c r="M39">
         <v>58.7</v>
       </c>
-      <c r="N39" s="3">
-        <f t="shared" si="4"/>
+      <c r="N39">
+        <f t="shared" si="11"/>
         <v>1.8654833697535286E-3</v>
       </c>
-      <c r="O39" s="10">
-        <f t="shared" si="5"/>
+      <c r="O39" s="9">
+        <f t="shared" si="12"/>
         <v>5.8700000000000002E-2</v>
       </c>
-      <c r="Q39" s="9">
+      <c r="Q39" s="8">
         <v>7.740000000000001E-2</v>
       </c>
-      <c r="R39" s="3"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="10">
+      <c r="T39" s="9">
         <f t="shared" si="6"/>
         <v>2.4597685318385539E-3</v>
       </c>
     </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B40" s="9">
+    <row r="40" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B40" s="8">
         <v>0.32</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40">
         <v>34.200000000000003</v>
       </c>
-      <c r="D40" s="4">
-        <f t="shared" si="0"/>
+      <c r="D40" s="3">
+        <f t="shared" si="7"/>
         <v>1.0868744675565705E-3</v>
       </c>
-      <c r="E40" s="10">
-        <f t="shared" si="1"/>
+      <c r="E40" s="9">
+        <f t="shared" si="8"/>
         <v>3.4200000000000001E-2</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G40" s="8">
         <v>0.32</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H40">
         <v>42</v>
       </c>
-      <c r="I40" s="10">
-        <f t="shared" si="2"/>
+      <c r="I40" s="9">
+        <f t="shared" si="9"/>
         <v>1.3347581180519284E-3</v>
       </c>
-      <c r="J40" s="17">
-        <f t="shared" si="3"/>
+      <c r="J40" s="14">
+        <f t="shared" si="10"/>
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="L40" s="9">
+      <c r="L40" s="8">
         <v>0.32</v>
       </c>
-      <c r="M40" s="3">
+      <c r="M40">
         <v>60.7</v>
       </c>
-      <c r="N40" s="3">
-        <f t="shared" si="4"/>
+      <c r="N40">
+        <f t="shared" si="11"/>
         <v>1.9290432801369539E-3</v>
       </c>
-      <c r="O40" s="10">
-        <f t="shared" si="5"/>
+      <c r="O40" s="9">
+        <f t="shared" si="12"/>
         <v>6.0700000000000004E-2</v>
       </c>
-      <c r="Q40" s="9">
+      <c r="Q40" s="8">
         <v>7.6200000000000004E-2</v>
       </c>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="10">
+      <c r="T40" s="9">
         <f t="shared" si="6"/>
         <v>2.4216325856084991E-3</v>
       </c>
     </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B41" s="9">
+    <row r="41" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B41" s="8">
         <v>0.33</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41">
         <v>24.8</v>
       </c>
-      <c r="D41" s="4">
-        <f t="shared" si="0"/>
+      <c r="D41" s="3">
+        <f t="shared" si="7"/>
         <v>7.8814288875447207E-4</v>
       </c>
-      <c r="E41" s="10">
-        <f t="shared" si="1"/>
+      <c r="E41" s="9">
+        <f t="shared" si="8"/>
         <v>2.4799999999999999E-2</v>
       </c>
-      <c r="G41" s="9">
+      <c r="G41" s="8">
         <v>0.33</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H41">
         <v>53.1</v>
       </c>
-      <c r="I41" s="10">
-        <f t="shared" si="2"/>
+      <c r="I41" s="9">
+        <f t="shared" si="9"/>
         <v>1.6875156206799381E-3</v>
       </c>
-      <c r="J41" s="17">
-        <f t="shared" si="3"/>
+      <c r="J41" s="14">
+        <f t="shared" si="10"/>
         <v>5.3100000000000001E-2</v>
       </c>
-      <c r="L41" s="9">
+      <c r="L41" s="8">
         <v>0.33</v>
       </c>
-      <c r="M41" s="3">
+      <c r="M41">
         <v>66.2</v>
       </c>
-      <c r="N41" s="3">
-        <f t="shared" si="4"/>
+      <c r="N41">
+        <f t="shared" si="11"/>
         <v>2.1038330336913729E-3</v>
       </c>
-      <c r="O41" s="10">
-        <f t="shared" si="5"/>
+      <c r="O41" s="9">
+        <f t="shared" si="12"/>
         <v>6.6200000000000009E-2</v>
       </c>
-      <c r="Q41" s="9">
+      <c r="Q41" s="8">
         <v>7.7900000000000011E-2</v>
       </c>
-      <c r="R41" s="3"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="10">
+      <c r="T41" s="9">
         <f t="shared" si="6"/>
         <v>2.47565850943441E-3</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B42" s="9">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B42" s="8">
         <v>0.34</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42">
         <v>18.600000000000001</v>
       </c>
-      <c r="D42" s="4">
-        <f t="shared" si="0"/>
+      <c r="D42" s="3">
+        <f t="shared" si="7"/>
         <v>5.91107166565854E-4</v>
       </c>
-      <c r="E42" s="10">
-        <f t="shared" si="1"/>
+      <c r="E42" s="9">
+        <f t="shared" si="8"/>
         <v>1.8600000000000002E-2</v>
       </c>
-      <c r="G42" s="9">
+      <c r="G42" s="8">
         <v>0.34</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42">
         <v>57.2</v>
       </c>
-      <c r="I42" s="10">
-        <f t="shared" si="2"/>
+      <c r="I42" s="9">
+        <f t="shared" si="9"/>
         <v>1.8178134369659597E-3</v>
       </c>
-      <c r="J42" s="17">
-        <f t="shared" si="3"/>
+      <c r="J42" s="14">
+        <f t="shared" si="10"/>
         <v>5.7200000000000001E-2</v>
       </c>
-      <c r="L42" s="9">
+      <c r="L42" s="8">
         <v>0.34</v>
       </c>
-      <c r="M42" s="3">
+      <c r="M42">
         <v>69.7</v>
       </c>
-      <c r="N42" s="3">
-        <f t="shared" si="4"/>
+      <c r="N42">
+        <f t="shared" si="11"/>
         <v>2.2150628768623673E-3</v>
       </c>
-      <c r="O42" s="10">
-        <f t="shared" si="5"/>
+      <c r="O42" s="9">
+        <f t="shared" si="12"/>
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="Q42" s="9">
+      <c r="Q42" s="8">
         <v>7.5800000000000006E-2</v>
       </c>
-      <c r="R42" s="3"/>
-      <c r="S42" s="3"/>
-      <c r="T42" s="10">
+      <c r="T42" s="9">
         <f t="shared" si="6"/>
         <v>2.4089206035318137E-3</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B43" s="9">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B43" s="8">
         <v>0.35</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43">
         <v>14.3</v>
       </c>
-      <c r="D43" s="4">
-        <f t="shared" si="0"/>
+      <c r="D43" s="3">
+        <f t="shared" si="7"/>
         <v>4.5445335924148992E-4</v>
       </c>
-      <c r="E43" s="10">
-        <f t="shared" si="1"/>
+      <c r="E43" s="9">
+        <f t="shared" si="8"/>
         <v>1.43E-2</v>
       </c>
-      <c r="G43" s="9">
+      <c r="G43" s="8">
         <v>0.35</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43">
         <v>51.4</v>
       </c>
-      <c r="I43" s="10">
-        <f t="shared" si="2"/>
+      <c r="I43" s="9">
+        <f t="shared" si="9"/>
         <v>1.6334896968540266E-3</v>
       </c>
-      <c r="J43" s="17">
-        <f t="shared" si="3"/>
+      <c r="J43" s="14">
+        <f t="shared" si="10"/>
         <v>5.1400000000000001E-2</v>
       </c>
-      <c r="L43" s="9">
+      <c r="L43" s="8">
         <v>0.35</v>
       </c>
-      <c r="M43" s="3">
+      <c r="M43">
         <v>59.3</v>
       </c>
-      <c r="N43" s="3">
-        <f t="shared" si="4"/>
+      <c r="N43">
+        <f t="shared" si="11"/>
         <v>1.8845513428685562E-3</v>
       </c>
-      <c r="O43" s="10">
-        <f t="shared" si="5"/>
+      <c r="O43" s="9">
+        <f t="shared" si="12"/>
         <v>5.9299999999999999E-2</v>
       </c>
-      <c r="Q43" s="9">
+      <c r="Q43" s="8">
         <v>6.5700000000000008E-2</v>
       </c>
-      <c r="R43" s="3"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="10">
+      <c r="T43" s="9">
         <f t="shared" si="6"/>
         <v>2.0879430560955163E-3</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B44" s="9">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B44" s="8">
         <v>0.36</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44">
         <v>11.5</v>
       </c>
-      <c r="D44" s="4">
-        <f t="shared" si="0"/>
+      <c r="D44" s="3">
+        <f t="shared" si="7"/>
         <v>3.6546948470469472E-4</v>
       </c>
-      <c r="E44" s="10">
-        <f t="shared" si="1"/>
+      <c r="E44" s="9">
+        <f t="shared" si="8"/>
         <v>1.15E-2</v>
       </c>
-      <c r="G44" s="9">
+      <c r="G44" s="8">
         <v>0.36</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44">
         <v>38.4</v>
       </c>
-      <c r="I44" s="10">
-        <f t="shared" si="2"/>
+      <c r="I44" s="9">
+        <f t="shared" si="9"/>
         <v>1.2203502793617631E-3</v>
       </c>
-      <c r="J44" s="17">
-        <f t="shared" si="3"/>
+      <c r="J44" s="14">
+        <f t="shared" si="10"/>
         <v>3.8399999999999997E-2</v>
       </c>
-      <c r="L44" s="9">
+      <c r="L44" s="8">
         <v>0.36</v>
       </c>
-      <c r="M44" s="3">
+      <c r="M44">
         <v>44.3</v>
       </c>
-      <c r="N44" s="3">
-        <f t="shared" si="4"/>
+      <c r="N44">
+        <f t="shared" si="11"/>
         <v>1.4078520149928672E-3</v>
       </c>
-      <c r="O44" s="10">
-        <f t="shared" si="5"/>
+      <c r="O44" s="9">
+        <f t="shared" si="12"/>
         <v>4.4299999999999999E-2</v>
       </c>
-      <c r="Q44" s="9">
+      <c r="Q44" s="8">
         <v>4.99E-2</v>
       </c>
-      <c r="R44" s="3"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="10">
+      <c r="T44" s="9">
         <f t="shared" si="6"/>
         <v>1.5858197640664579E-3</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B45" s="9">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B45" s="8">
         <v>0.37</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45">
         <v>9.5</v>
       </c>
-      <c r="D45" s="4">
-        <f t="shared" si="0"/>
+      <c r="D45" s="3">
+        <f t="shared" si="7"/>
         <v>3.0190957432126952E-4</v>
       </c>
-      <c r="E45" s="10">
-        <f t="shared" si="1"/>
+      <c r="E45" s="9">
+        <f t="shared" si="8"/>
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="G45" s="9">
+      <c r="G45" s="8">
         <v>0.37</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H45">
         <v>28.1</v>
       </c>
-      <c r="I45" s="10">
-        <f t="shared" si="2"/>
+      <c r="I45" s="9">
+        <f t="shared" si="9"/>
         <v>8.9301674088712352E-4</v>
       </c>
-      <c r="J45" s="17">
-        <f t="shared" si="3"/>
+      <c r="J45" s="14">
+        <f t="shared" si="10"/>
         <v>2.81E-2</v>
       </c>
-      <c r="L45" s="9">
+      <c r="L45" s="8">
         <v>0.37</v>
       </c>
-      <c r="M45" s="3">
+      <c r="M45">
         <v>31.1</v>
       </c>
-      <c r="N45" s="3">
-        <f t="shared" si="4"/>
+      <c r="N45">
+        <f t="shared" si="11"/>
         <v>9.883566064622614E-4</v>
       </c>
-      <c r="O45" s="10">
-        <f t="shared" si="5"/>
+      <c r="O45" s="9">
+        <f t="shared" si="12"/>
         <v>3.1100000000000003E-2</v>
       </c>
-      <c r="Q45" s="9">
+      <c r="Q45" s="8">
         <v>3.7600000000000001E-2</v>
       </c>
-      <c r="R45" s="3"/>
-      <c r="S45" s="3"/>
-      <c r="T45" s="10">
+      <c r="T45" s="9">
         <f t="shared" si="6"/>
         <v>1.194926315208393E-3</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B46" s="9">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B46" s="8">
         <v>0.38</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46">
         <v>8.1</v>
       </c>
-      <c r="D46" s="4">
-        <f t="shared" si="0"/>
+      <c r="D46" s="3">
+        <f t="shared" si="7"/>
         <v>2.574176370528719E-4</v>
       </c>
-      <c r="E46" s="10">
-        <f t="shared" si="1"/>
+      <c r="E46" s="9">
+        <f t="shared" si="8"/>
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="G46" s="9">
+      <c r="G46" s="8">
         <v>0.38</v>
       </c>
-      <c r="H46" s="3">
+      <c r="H46">
         <v>20.9</v>
       </c>
-      <c r="I46" s="10">
-        <f t="shared" si="2"/>
+      <c r="I46" s="9">
+        <f t="shared" si="9"/>
         <v>6.6420106350679282E-4</v>
       </c>
-      <c r="J46" s="17">
-        <f t="shared" si="3"/>
+      <c r="J46" s="14">
+        <f t="shared" si="10"/>
         <v>2.0899999999999998E-2</v>
       </c>
-      <c r="L46" s="9">
+      <c r="L46" s="8">
         <v>0.38</v>
       </c>
-      <c r="M46" s="3">
+      <c r="M46">
         <v>22.6</v>
       </c>
-      <c r="N46" s="3">
-        <f t="shared" si="4"/>
+      <c r="N46">
+        <f t="shared" si="11"/>
         <v>7.182269873327044E-4</v>
       </c>
-      <c r="O46" s="10">
-        <f t="shared" si="5"/>
+      <c r="O46" s="9">
+        <f t="shared" si="12"/>
         <v>2.2600000000000002E-2</v>
       </c>
-      <c r="Q46" s="9">
+      <c r="Q46" s="8">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="R46" s="3"/>
-      <c r="S46" s="3"/>
-      <c r="T46" s="10">
+      <c r="T46" s="9">
         <f t="shared" si="6"/>
         <v>9.2161870055966467E-4</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B47" s="9">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B47" s="8">
         <v>0.39</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47">
         <v>7.1</v>
       </c>
-      <c r="D47" s="4">
-        <f t="shared" si="0"/>
+      <c r="D47" s="3">
+        <f t="shared" si="7"/>
         <v>2.2563768186115933E-4</v>
       </c>
-      <c r="E47" s="10">
-        <f t="shared" si="1"/>
+      <c r="E47" s="9">
+        <f t="shared" si="8"/>
         <v>7.0999999999999995E-3</v>
       </c>
-      <c r="G47" s="9">
+      <c r="G47" s="8">
         <v>0.39</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47">
         <v>15.8</v>
       </c>
-      <c r="I47" s="10">
-        <f t="shared" si="2"/>
+      <c r="I47" s="9">
+        <f t="shared" si="9"/>
         <v>5.0212329202905886E-4</v>
       </c>
-      <c r="J47" s="17">
-        <f t="shared" si="3"/>
+      <c r="J47" s="14">
+        <f t="shared" si="10"/>
         <v>1.5800000000000002E-2</v>
       </c>
-      <c r="L47" s="9">
+      <c r="L47" s="8">
         <v>0.39</v>
       </c>
-      <c r="M47" s="3">
+      <c r="M47">
         <v>17.3</v>
       </c>
-      <c r="N47" s="3">
-        <f t="shared" si="4"/>
+      <c r="N47">
+        <f t="shared" si="11"/>
         <v>5.4979322481662769E-4</v>
       </c>
-      <c r="O47" s="10">
-        <f t="shared" si="5"/>
+      <c r="O47" s="9">
+        <f t="shared" si="12"/>
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="Q47" s="9">
+      <c r="Q47" s="8">
         <v>2.29E-2</v>
       </c>
-      <c r="R47" s="3"/>
-      <c r="S47" s="3"/>
-      <c r="T47" s="10">
+      <c r="T47" s="9">
         <f t="shared" si="6"/>
         <v>7.2776097389021818E-4</v>
       </c>
     </row>
-    <row r="48" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="11">
+    <row r="48" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="10">
         <v>0.4</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C48" s="11">
         <v>6.4</v>
       </c>
-      <c r="D48" s="15">
-        <f t="shared" si="0"/>
+      <c r="D48" s="13">
+        <f t="shared" si="7"/>
         <v>2.0339171322696054E-4</v>
       </c>
-      <c r="E48" s="13">
-        <f t="shared" si="1"/>
+      <c r="E48" s="12">
+        <f t="shared" si="8"/>
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="G48" s="11">
+      <c r="G48" s="10">
         <v>0.4</v>
       </c>
-      <c r="H48" s="12">
+      <c r="H48" s="11">
         <v>12.6</v>
       </c>
-      <c r="I48" s="13">
-        <f t="shared" si="2"/>
+      <c r="I48" s="12">
+        <f t="shared" si="9"/>
         <v>4.004274354155785E-4</v>
       </c>
-      <c r="J48" s="18">
-        <f t="shared" si="3"/>
+      <c r="J48" s="15">
+        <f t="shared" si="10"/>
         <v>1.26E-2</v>
       </c>
-      <c r="L48" s="11">
+      <c r="L48" s="10">
         <v>0.4</v>
       </c>
-      <c r="M48" s="12">
+      <c r="M48" s="11">
         <v>13.6</v>
       </c>
-      <c r="N48" s="12">
-        <f>M48*H$3/1000</f>
+      <c r="N48" s="11">
+        <f t="shared" si="11"/>
         <v>4.3220739060729108E-4</v>
       </c>
-      <c r="O48" s="13">
-        <f t="shared" si="5"/>
+      <c r="O48" s="12">
+        <f t="shared" si="12"/>
         <v>1.3599999999999999E-2</v>
       </c>
-      <c r="Q48" s="11">
+      <c r="Q48" s="10">
         <v>1.9E-2</v>
       </c>
-      <c r="R48" s="12"/>
-      <c r="S48" s="12"/>
-      <c r="T48" s="13">
+      <c r="R48" s="11"/>
+      <c r="S48" s="11"/>
+      <c r="T48" s="12">
         <f t="shared" si="6"/>
         <v>6.0381914864253905E-4</v>
       </c>
@@ -11127,9 +10657,9 @@
       <c r="K110" t="s">
         <v>19</v>
       </c>
-      <c r="L110" s="14">
+      <c r="L110">
         <f>AVERAGE(T8:T48)</f>
-        <v>8.959622001487945E-4</v>
+        <v>1.6401987985056104E-3</v>
       </c>
     </row>
     <row r="112" spans="11:13" x14ac:dyDescent="0.3">
@@ -11145,9 +10675,9 @@
       <c r="K114" t="s">
         <v>20</v>
       </c>
-      <c r="L114" s="14">
+      <c r="L114">
         <f>L110/L112</f>
-        <v>119.57106269691663</v>
+        <v>218.89351285015317</v>
       </c>
     </row>
   </sheetData>
